--- a/Livros/Planejamento.xlsx
+++ b/Livros/Planejamento.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" tabRatio="700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700" tabRatio="700"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="15" r:id="rId1"/>
     <sheet name="Andamento" sheetId="18" r:id="rId2"/>
     <sheet name="Passo a passo" sheetId="17" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -159,8 +159,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,38 +174,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Gentium Basic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Gentium Basic"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Gentium Basic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Gentium Basic"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Gentium Basic"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Gentium Basic"/>
     </font>
     <font>
       <b/>
@@ -223,13 +191,53 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
-      <name val="Gentium Basic"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Gentium Basic"/>
+      <color rgb="FF006100"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -287,37 +295,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,14 +313,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,14 +333,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -371,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +419,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -445,6 +453,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -479,9 +488,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -654,602 +664,602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="34.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="16"/>
+    <col min="4" max="5" width="9.109375" style="15"/>
+    <col min="6" max="6" width="34.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="18" style="15" customWidth="1"/>
+    <col min="8" max="10" width="20.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="24">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="21"/>
+      <c r="F3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.5">
-      <c r="B4" s="5" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="16">
         <v>110</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" ht="16.5">
-      <c r="B5" s="5" t="s">
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="16">
         <v>110</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5">
-      <c r="B6" s="5" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="16">
         <v>110</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5">
-      <c r="B7" s="5" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="16">
         <v>300</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5">
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="16">
         <v>30</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" ht="16.5">
-      <c r="C9" s="10">
+      <c r="F8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="25">
         <f>SUM(C4:C8)</f>
         <v>660</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" ht="16.5">
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D10" s="26"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:10" ht="24">
-      <c r="B11" s="25" t="s">
+      <c r="F10" s="22"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="16.5">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="26"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="16.5">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16.5">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="26"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="16.5">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="16.5">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2" t="s">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="25">
         <f>SUM(C13:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="26"/>
     </row>
-    <row r="18" spans="2:6" ht="16.5">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="2:6" ht="24">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="16.5">
-      <c r="B20" s="3" t="s">
+      <c r="E19" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="2:6" ht="16.5">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="26"/>
     </row>
-    <row r="22" spans="2:6" ht="16.5">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="26"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="26"/>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="25">
         <f>SUM(C21:C24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="16.5">
-      <c r="B26" s="5"/>
+      <c r="F25" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="16.5">
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.5">
-      <c r="B29" s="5"/>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="16.5">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5">
-      <c r="B31" s="5"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="D29" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" s="23" customFormat="1">
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>3</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="13">
         <v>4</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="13">
         <v>5</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="13">
         <v>6</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="13">
         <v>7</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="13">
         <v>8</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="13">
         <v>9</v>
       </c>
-      <c r="M2" s="23">
-        <v>10</v>
-      </c>
-      <c r="N2" s="23">
+      <c r="M2" s="13">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13">
         <v>11</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="13">
         <v>12</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="13">
         <v>13</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="13">
         <v>14</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="13">
         <v>15</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="13">
         <v>16</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="13">
         <v>17</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="13">
         <v>18</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V2" s="13">
         <v>19</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="13">
         <v>20</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="13">
         <v>21</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="13">
         <v>22</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="Z2" s="13">
         <v>23</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="13">
         <v>24</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="13">
         <v>25</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="13">
         <v>26</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="13">
         <v>27</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="13">
         <v>28</v>
       </c>
-      <c r="AF2" s="23">
+      <c r="AF2" s="13">
         <v>29</v>
       </c>
-      <c r="AG2" s="23">
+      <c r="AG2" s="13">
         <v>30</v>
       </c>
-      <c r="AH2" s="23">
+      <c r="AH2" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="20" customFormat="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="10">
         <v>2016</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="10">
         <v>53</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="10">
         <v>56</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="10">
         <v>56</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="10">
         <v>60</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="10">
         <v>61</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="10">
         <v>63</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="10">
         <v>63</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="10">
         <v>63</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="10">
         <v>66</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="10">
         <v>71</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AE3" s="10">
         <v>73</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="10">
         <v>73</v>
       </c>
-      <c r="AG3" s="20">
+      <c r="AG3" s="10">
         <v>73</v>
       </c>
-      <c r="AH3" s="20">
+      <c r="AH3" s="10">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="21" customFormat="1">
-      <c r="U4" s="21">
+    <row r="4" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="11">
         <v>3</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="11">
         <v>3</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="11">
         <v>4</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="11">
         <v>1</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="11">
         <v>2</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="11">
         <v>3</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="11">
         <v>5</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="22" customFormat="1">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="12">
         <v>2016</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="12">
         <v>73</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="12">
         <v>80</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="12">
         <v>83</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="12">
         <v>86</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="12">
         <v>91</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="12">
         <v>95</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="12">
         <v>95</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="12">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="21" customFormat="1">
-      <c r="E7" s="21">
+    <row r="7" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="11">
         <f t="shared" ref="E7:I7" si="0">F6-E6</f>
         <v>7</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="L10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="I14" s="12" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1260,121 +1270,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="41.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="41.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="12">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="3">
         <v>4000</v>
       </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="12">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="12">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="12">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="12">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="D8" s="24">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="14">
         <f>SUM(D3:D7)</f>
         <v>26000</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="D11" s="13"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="D13" s="13"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="D15" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="C17" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="18"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="E23" s="18"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
